--- a/Probability.xlsx
+++ b/Probability.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Probability two dice" sheetId="1" r:id="rId1"/>
+    <sheet name="Coin flip" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Die 1</t>
   </si>
@@ -42,12 +43,85 @@
   </si>
   <si>
     <t>www.Best-Excel-Tutorial.com</t>
+  </si>
+  <si>
+    <t>Tries to flip head (or tail)</t>
+  </si>
+  <si>
+    <t>Odds</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>1:16</t>
+  </si>
+  <si>
+    <t>1:32</t>
+  </si>
+  <si>
+    <t>1:64</t>
+  </si>
+  <si>
+    <t>1:128</t>
+  </si>
+  <si>
+    <t>1:256</t>
+  </si>
+  <si>
+    <t>1:512</t>
+  </si>
+  <si>
+    <t>1:1024</t>
+  </si>
+  <si>
+    <t>1:2048</t>
+  </si>
+  <si>
+    <t>1:4096</t>
+  </si>
+  <si>
+    <t>1:8192</t>
+  </si>
+  <si>
+    <t>1:16384</t>
+  </si>
+  <si>
+    <t>1:32768</t>
+  </si>
+  <si>
+    <t>1:65536</t>
+  </si>
+  <si>
+    <t>1:131072</t>
+  </si>
+  <si>
+    <t>1:262144</t>
+  </si>
+  <si>
+    <t>1:524288</t>
+  </si>
+  <si>
+    <t>1:1048576</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.00000%"/>
+    <numFmt numFmtId="167" formatCode="0.000000%"/>
+    <numFmt numFmtId="168" formatCode="0.0%"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -295,10 +369,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -584,7 +665,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -893,13 +976,13 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="J12">
         <v>10</v>
       </c>
@@ -947,4 +1030,290 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <f>POWER(0.5,$A2)</f>
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20">
+        <f t="shared" ref="B3:B21" si="0">POWER(0.5,$A3)</f>
+        <v>0.25</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="16">
+        <f t="shared" si="0"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="17">
+        <f t="shared" si="0"/>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="18">
+        <f t="shared" si="0"/>
+        <v>7.8125E-3</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="18">
+        <f t="shared" si="0"/>
+        <v>3.90625E-3</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="18">
+        <f t="shared" si="0"/>
+        <v>1.953125E-3</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="18">
+        <f t="shared" si="0"/>
+        <v>9.765625E-4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="18">
+        <f t="shared" si="0"/>
+        <v>4.8828125E-4</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="18">
+        <f t="shared" si="0"/>
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19">
+        <f t="shared" si="0"/>
+        <v>1.220703125E-4</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19">
+        <f t="shared" si="0"/>
+        <v>6.103515625E-5</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19">
+        <f t="shared" si="0"/>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="19">
+        <f t="shared" si="0"/>
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="19">
+        <f t="shared" si="0"/>
+        <v>7.62939453125E-6</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="19">
+        <f t="shared" si="0"/>
+        <v>3.814697265625E-6</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="19">
+        <f t="shared" si="0"/>
+        <v>1.9073486328125E-6</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="19">
+        <f t="shared" si="0"/>
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A23:E23"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A23" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Probability.xlsx
+++ b/Probability.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Probability two dice" sheetId="1" r:id="rId1"/>
     <sheet name="Coin flip" sheetId="2" r:id="rId2"/>
+    <sheet name="Poker" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>Die 1</t>
   </si>
@@ -109,6 +110,75 @@
   </si>
   <si>
     <t>1:1048576</t>
+  </si>
+  <si>
+    <t>Total number of cards</t>
+  </si>
+  <si>
+    <t>Your cards</t>
+  </si>
+  <si>
+    <t>Number of combinations</t>
+  </si>
+  <si>
+    <t>Pair</t>
+  </si>
+  <si>
+    <t>Three of a kind</t>
+  </si>
+  <si>
+    <t>Four of a kind</t>
+  </si>
+  <si>
+    <t>Full house</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>Flush</t>
+  </si>
+  <si>
+    <t>Straight flush</t>
+  </si>
+  <si>
+    <t>Royal flush</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>Two pair</t>
+  </si>
+  <si>
+    <t>Combinations</t>
+  </si>
+  <si>
+    <t>20.0 : 1</t>
+  </si>
+  <si>
+    <t>1.366 : 1</t>
+  </si>
+  <si>
+    <t>46.33 : 1</t>
+  </si>
+  <si>
+    <t>4,165 : 1</t>
+  </si>
+  <si>
+    <t>693.17 : 1</t>
+  </si>
+  <si>
+    <t>72,192 1/3 : 1</t>
+  </si>
+  <si>
+    <t>649,739 : 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 253.8 : 1</t>
+  </si>
+  <si>
+    <t>508.8 : 1</t>
   </si>
 </sst>
 </file>
@@ -352,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -381,6 +451,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1036,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:E23"/>
     </sheetView>
   </sheetViews>
@@ -1316,4 +1390,199 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <f>COMBIN(B1,B2)</f>
+        <v>2598960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="25">
+        <v>1098240</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B6/$B$3</f>
+        <v>0.42256902761104442</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="25">
+        <v>123552</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" ref="C7:C14" si="0">B7/$B$3</f>
+        <v>4.7539015606242498E-2</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="25">
+        <v>54912</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1128451380552221E-2</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="25">
+        <v>10200</v>
+      </c>
+      <c r="C9" s="1">
+        <f>B9/$B$3</f>
+        <v>3.9246467817896386E-3</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="25">
+        <v>5108</v>
+      </c>
+      <c r="C10" s="1">
+        <f>B10/$B$3</f>
+        <v>1.965401545233478E-3</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="25">
+        <v>3744</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4405762304921968E-3</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>624</v>
+      </c>
+      <c r="C12" s="1">
+        <f>B12/$B$3</f>
+        <v>2.4009603841536616E-4</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13" s="17">
+        <f t="shared" si="0"/>
+        <v>1.3851694523963431E-5</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="19">
+        <f t="shared" si="0"/>
+        <v>3.8476929233231754E-7</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>